--- a/results/figures and tables/Template_item_overview.xlsx
+++ b/results/figures and tables/Template_item_overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd_reloaded\results\figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd\results\figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B9E37-C4CD-40D3-8669-21D94A3324F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B0563-E1F6-4F81-85CD-E5BEC5C1A6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,12 +96,6 @@
     <t>Total sex partners</t>
   </si>
   <si>
-    <t>Primary indicator of sex drive</t>
-  </si>
-  <si>
-    <t>Secondary indicator of sex drive</t>
-  </si>
-  <si>
     <t>Indicator of potentially biased responding</t>
   </si>
   <si>
@@ -120,13 +114,19 @@
     <t>Total one night stands</t>
   </si>
   <si>
-    <t>Self-rated sex drove</t>
-  </si>
-  <si>
     <t>Sexual intercourse frequency</t>
   </si>
   <si>
     <t>Total sex partners in last year</t>
+  </si>
+  <si>
+    <t>Self-rated sex drive</t>
+  </si>
+  <si>
+    <t>Indicator of latent sex drive</t>
+  </si>
+  <si>
+    <t>Sex drive manifestation</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -536,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -575,10 +575,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
